--- a/flows/GLDM_fund_flow_data.xlsx
+++ b/flows/GLDM_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1427"/>
+  <dimension ref="A1:B1445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14705,6 +14705,186 @@
         <v>19.8095</v>
       </c>
     </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>48.2844</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>28.1428</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1432" t="n">
+        <v>40.199</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1434" t="n">
+        <v>-64.4832</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1437" t="n">
+        <v>-37.4427</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1441" t="n">
+        <v>38.7477</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
